--- a/test_data1.xlsx
+++ b/test_data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\VS Code-workspace\Practice\HackathonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vybha\Desktop\Hackathon2024\Hackathon2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB12B1EB-C915-4635-926E-8564E2EDB942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B3A04-6680-4D7C-85DF-889198F861C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE96953B-98EB-4220-A362-8E738BF8CD06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE96953B-98EB-4220-A362-8E738BF8CD06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +54,282 @@
   </si>
   <si>
     <t>A financial tracking tool for monitoring budgets and expenses</t>
+  </si>
+  <si>
+    <t>TaskMaster</t>
+  </si>
+  <si>
+    <t>A project management tool for tracking tasks and deadlines.</t>
+  </si>
+  <si>
+    <t>BudgetBuddy</t>
+  </si>
+  <si>
+    <t>A user-friendly app for personal budgeting and expense tracking.</t>
+  </si>
+  <si>
+    <t>CollaborateX</t>
+  </si>
+  <si>
+    <t>A platform for real-time collaboration on documents and projects.</t>
+  </si>
+  <si>
+    <t>InsightAnalytics</t>
+  </si>
+  <si>
+    <t>A data analytics tool for generating insights and reports from your data.</t>
+  </si>
+  <si>
+    <t>HealthTracker</t>
+  </si>
+  <si>
+    <t>An application for tracking fitness and health metrics.</t>
+  </si>
+  <si>
+    <t>EventScheduler</t>
+  </si>
+  <si>
+    <t>A tool for planning and managing events and appointments.</t>
+  </si>
+  <si>
+    <t>NoteTaker</t>
+  </si>
+  <si>
+    <t>An easy-to-use app for taking and organizing notes.</t>
+  </si>
+  <si>
+    <t>RecipeFinder</t>
+  </si>
+  <si>
+    <t>A culinary app for discovering new recipes and meal planning.</t>
+  </si>
+  <si>
+    <t>MindMapMaster</t>
+  </si>
+  <si>
+    <t>A tool for creating and sharing mind maps for brainstorming sessions.</t>
+  </si>
+  <si>
+    <t>SalesTracker</t>
+  </si>
+  <si>
+    <t>A CRM tool for managing leads and sales pipelines.</t>
+  </si>
+  <si>
+    <t>TravelPlanner</t>
+  </si>
+  <si>
+    <t>An app for planning trips and managing travel itineraries.</t>
+  </si>
+  <si>
+    <t>CodeSnippetManager</t>
+  </si>
+  <si>
+    <t>A tool for storing and managing code snippets and programming resources.</t>
+  </si>
+  <si>
+    <t>E-Learning Hub</t>
+  </si>
+  <si>
+    <t>An online platform for e-learning and training courses.</t>
+  </si>
+  <si>
+    <t>FitnessCoach</t>
+  </si>
+  <si>
+    <t>A personalized fitness coaching app for workouts and nutrition.</t>
+  </si>
+  <si>
+    <t>SocialMediaManager</t>
+  </si>
+  <si>
+    <t>A tool for managing social media posts and analytics.</t>
+  </si>
+  <si>
+    <t>InvoiceGen</t>
+  </si>
+  <si>
+    <t>An invoicing tool for creating and sending professional invoices.</t>
+  </si>
+  <si>
+    <t>RecipeBook</t>
+  </si>
+  <si>
+    <t>A digital cookbook for organizing and sharing your favorite recipes.</t>
+  </si>
+  <si>
+    <t>PetTracker</t>
+  </si>
+  <si>
+    <t>An app for managing pet care schedules and health records.</t>
+  </si>
+  <si>
+    <t>LanguageLearner</t>
+  </si>
+  <si>
+    <t>A language learning app with interactive lessons and exercises.</t>
+  </si>
+  <si>
+    <t>EventTicketing</t>
+  </si>
+  <si>
+    <t>A platform for selling and managing event tickets.</t>
+  </si>
+  <si>
+    <t>InventoryManager</t>
+  </si>
+  <si>
+    <t>A tool for tracking inventory levels and managing stock.</t>
+  </si>
+  <si>
+    <t>ArtPortfolio</t>
+  </si>
+  <si>
+    <t>An application for showcasing and sharing your art portfolio.</t>
+  </si>
+  <si>
+    <t>MusicComposer</t>
+  </si>
+  <si>
+    <t>A software tool for composing and arranging music.</t>
+  </si>
+  <si>
+    <t>PlantCare</t>
+  </si>
+  <si>
+    <t>An app for managing indoor and outdoor plant care routines.</t>
+  </si>
+  <si>
+    <t>PhotoEditor</t>
+  </si>
+  <si>
+    <t>A powerful tool for editing and enhancing photos.</t>
+  </si>
+  <si>
+    <t>TravelJournal</t>
+  </si>
+  <si>
+    <t>A digital journal for documenting travel experiences and memories.</t>
+  </si>
+  <si>
+    <t>HomeInventory</t>
+  </si>
+  <si>
+    <t>A tool for cataloging and managing home items and assets.</t>
+  </si>
+  <si>
+    <t>VirtualClassroom</t>
+  </si>
+  <si>
+    <t>A platform for online classes and educational resources.</t>
+  </si>
+  <si>
+    <t>FoodDiary</t>
+  </si>
+  <si>
+    <t>An app for tracking food intake and dietary habits.</t>
+  </si>
+  <si>
+    <t>MindfulnessApp</t>
+  </si>
+  <si>
+    <t>A meditation and mindfulness practice app for stress relief.</t>
+  </si>
+  <si>
+    <t>FitnessChallenge</t>
+  </si>
+  <si>
+    <t>A community app for joining fitness challenges and tracking progress.</t>
+  </si>
+  <si>
+    <t>CraftOrganizer</t>
+  </si>
+  <si>
+    <t>An app for organizing craft projects and materials.</t>
+  </si>
+  <si>
+    <t>VolunteerHub</t>
+  </si>
+  <si>
+    <t>A platform for connecting volunteers with local opportunities.</t>
+  </si>
+  <si>
+    <t>ParentHelper</t>
+  </si>
+  <si>
+    <t>An app for managing parenting tasks and schedules.</t>
+  </si>
+  <si>
+    <t>DIYProjects</t>
+  </si>
+  <si>
+    <t>A tool for organizing and sharing do-it-yourself projects and tutorials.</t>
+  </si>
+  <si>
+    <t>E-BookReader</t>
+  </si>
+  <si>
+    <t>An app for reading and managing e-books and audiobooks.</t>
+  </si>
+  <si>
+    <t>SurveyCreator</t>
+  </si>
+  <si>
+    <t>A tool for creating and distributing surveys and questionnaires.</t>
+  </si>
+  <si>
+    <t>HomeBudget</t>
+  </si>
+  <si>
+    <t>An application for managing household budgets and expenses.</t>
+  </si>
+  <si>
+    <t>CharityTracker</t>
+  </si>
+  <si>
+    <t>A platform for tracking donations and fundraising efforts.</t>
+  </si>
+  <si>
+    <t>GardeningGuide</t>
+  </si>
+  <si>
+    <t>An app for gardening tips and plant care advice.</t>
+  </si>
+  <si>
+    <t>PersonalFinance</t>
+  </si>
+  <si>
+    <t>A comprehensive tool for managing personal finance and investments.</t>
+  </si>
+  <si>
+    <t>NetworkingEvent</t>
+  </si>
+  <si>
+    <t>A platform for organizing and managing networking events.</t>
+  </si>
+  <si>
+    <t>PhotoGallery</t>
+  </si>
+  <si>
+    <t>An app for creating and sharing photo albums and galleries.</t>
+  </si>
+  <si>
+    <t>CustomReminders</t>
+  </si>
+  <si>
+    <t>A tool for setting personalized reminders for tasks and events.</t>
+  </si>
+  <si>
+    <t>GoalSetter</t>
+  </si>
+  <si>
+    <t>An app for setting and tracking personal and professional goals.</t>
+  </si>
+  <si>
+    <t>RecipeBox</t>
+  </si>
+  <si>
+    <t>A digital space for saving and organizing your favorite recipes.</t>
   </si>
 </sst>
 </file>
@@ -428,18 +704,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B118801-E031-4B3D-88CC-A4E65026095C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,12 +731,380 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
